--- a/biology/Zoologie/Ariolimax_columbianus/Ariolimax_columbianus.xlsx
+++ b/biology/Zoologie/Ariolimax_columbianus/Ariolimax_columbianus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Limace-banane du Pacifique
 Ariolimax columbianus, en français la limace-banane du Pacifique, est une espèce de gastéropodes du genre Ariolimax, répandue sur la côte Pacifique de l'Amérique du Nord. Elle vit partiellement en symbiose avec les séquoias côtiers (Redwoods) et, pour cette raison, est appelée aussi limace des Redwoods.[réf. nécessaire]
-Le nom de « limace-banane » donné au genre Ariolimax[1] fait allusion à leur coloration jaune ; cependant au niveau régional il existe aussi des variétés brunes ou vertes.
+Le nom de « limace-banane » donné au genre Ariolimax fait allusion à leur coloration jaune ; cependant au niveau régional il existe aussi des variétés brunes ou vertes.
 Comme tous les pulmonata terrestres, cette espèce est hermaphrodite.
 Ariolimax columbianus est l'espèce la plus répandue du genre. C'est, avec une longueur qui peut atteindre 25 cm, la plus grande limace terrestre en Amérique du Nord et après la limace noirâtre européenne (Limax cinereoniger) la deuxième en taille du monde entier. La limace banane a un sexe très large, et il arrive que son partenaire ne parvienne pas à se séparer après l'accouplement. La limace mâle doit donc manger son pénis pour se libérer.
 </t>
